--- a/docs/Staging Database Design.xlsx
+++ b/docs/Staging Database Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWProject\WH_Nhom9_DongHo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE58C7-E351-4671-8154-334E89CC4266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B1A30F-3D88-4E7F-82EB-32D33A811F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>iso_week_label</t>
   </si>
   <si>
-    <t>iso_week_date</t>
-  </si>
-  <si>
     <t>holiday_status</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
     <t>week_label</t>
   </si>
   <si>
-    <t>week_date</t>
-  </si>
-  <si>
     <t>Ngày bắt đầu của tuần ISO</t>
   </si>
   <si>
@@ -418,6 +412,12 @@
   </si>
   <si>
     <t>Ngày này thuộc quý nào</t>
+  </si>
+  <si>
+    <t>week_start_date</t>
+  </si>
+  <si>
+    <t>iso_week_start_date</t>
   </si>
 </sst>
 </file>
@@ -485,19 +485,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -847,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="R80" sqref="R80"/>
+    <sheetView tabSelected="1" topLeftCell="L22" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,46 +857,46 @@
     <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="111.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="111.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="P1" s="3" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="P1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="P2" t="s">
         <v>0</v>
       </c>
@@ -905,25 +906,25 @@
       <c r="R2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
       <c r="O3">
         <v>1</v>
       </c>
@@ -936,25 +937,25 @@
       <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>17</v>
+      <c r="S3" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4">
         <v>2</v>
       </c>
@@ -967,25 +968,25 @@
       <c r="R4" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>18</v>
+      <c r="S4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5">
         <v>3</v>
       </c>
@@ -998,25 +999,25 @@
       <c r="R5" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6">
         <v>4</v>
       </c>
@@ -1029,25 +1030,25 @@
       <c r="R6" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7">
         <v>5</v>
       </c>
@@ -1060,25 +1061,25 @@
       <c r="R7" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
       <c r="O8">
         <v>6</v>
       </c>
@@ -1091,25 +1092,25 @@
       <c r="R8" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9">
         <v>7</v>
       </c>
@@ -1122,25 +1123,25 @@
       <c r="R9" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10">
         <v>8</v>
       </c>
@@ -1153,25 +1154,25 @@
       <c r="R10" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11">
         <v>9</v>
       </c>
@@ -1184,25 +1185,25 @@
       <c r="R11" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12">
         <v>10</v>
       </c>
@@ -1215,25 +1216,25 @@
       <c r="R12" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
       <c r="O13">
         <v>11</v>
       </c>
@@ -1246,79 +1247,79 @@
       <c r="R13" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="P16" s="3" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="P16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
       <c r="P17" t="s">
         <v>0</v>
       </c>
@@ -1328,25 +1329,25 @@
       <c r="R17" t="s">
         <v>2</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
       <c r="O18">
         <v>1</v>
       </c>
@@ -1359,25 +1360,25 @@
       <c r="R18" t="s">
         <v>46</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>17</v>
+      <c r="S18" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
       <c r="O19">
         <v>2</v>
       </c>
@@ -1390,25 +1391,25 @@
       <c r="R19" t="s">
         <v>47</v>
       </c>
-      <c r="S19" s="2" t="s">
-        <v>18</v>
+      <c r="S19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
       <c r="O20">
         <v>3</v>
       </c>
@@ -1421,25 +1422,25 @@
       <c r="R20" t="s">
         <v>48</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
       <c r="O21">
         <v>4</v>
       </c>
@@ -1452,25 +1453,25 @@
       <c r="R21" t="s">
         <v>49</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
       <c r="O22">
         <v>5</v>
       </c>
@@ -1483,25 +1484,25 @@
       <c r="R22" t="s">
         <v>50</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
       <c r="O23">
         <v>6</v>
       </c>
@@ -1514,25 +1515,25 @@
       <c r="R23" t="s">
         <v>51</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
       <c r="O24">
         <v>7</v>
       </c>
@@ -1545,25 +1546,25 @@
       <c r="R24" t="s">
         <v>52</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
       <c r="O25">
         <v>8</v>
       </c>
@@ -1576,25 +1577,25 @@
       <c r="R25" t="s">
         <v>53</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
       <c r="O26">
         <v>9</v>
       </c>
@@ -1607,25 +1608,25 @@
       <c r="R26" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
       <c r="O27">
         <v>10</v>
       </c>
@@ -1638,25 +1639,25 @@
       <c r="R27" t="s">
         <v>55</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
       <c r="O28">
         <v>11</v>
       </c>
@@ -1669,25 +1670,25 @@
       <c r="R28" t="s">
         <v>56</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="S28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
       <c r="O29">
         <v>12</v>
       </c>
@@ -1700,63 +1701,63 @@
       <c r="R29" t="s">
         <v>57</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="P31" s="3" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="P31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
       <c r="P32" t="s">
         <v>0</v>
       </c>
@@ -1766,25 +1767,25 @@
       <c r="R32" t="s">
         <v>2</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
       <c r="O33">
         <v>1</v>
       </c>
@@ -1797,25 +1798,25 @@
       <c r="R33" t="s">
         <v>16</v>
       </c>
-      <c r="S33" s="2" t="s">
-        <v>60</v>
+      <c r="S33" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
       <c r="O34">
         <v>2</v>
       </c>
@@ -1828,25 +1829,25 @@
       <c r="R34" t="s">
         <v>16</v>
       </c>
-      <c r="S34" s="2" t="s">
-        <v>61</v>
+      <c r="S34" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
       <c r="O35">
         <v>3</v>
       </c>
@@ -1859,25 +1860,25 @@
       <c r="R35" t="s">
         <v>16</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="S35" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
       <c r="O36">
         <v>4</v>
       </c>
@@ -1890,25 +1891,25 @@
       <c r="R36" t="s">
         <v>16</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="S36" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
       <c r="O37">
         <v>5</v>
       </c>
@@ -1921,25 +1922,25 @@
       <c r="R37" t="s">
         <v>16</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="S37" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
       <c r="O38">
         <v>6</v>
       </c>
@@ -1952,25 +1953,25 @@
       <c r="R38" t="s">
         <v>16</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="S38" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
       <c r="O39">
         <v>7</v>
       </c>
@@ -1983,25 +1984,25 @@
       <c r="R39" t="s">
         <v>16</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="S39" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
       <c r="O40">
         <v>8</v>
       </c>
@@ -2014,25 +2015,25 @@
       <c r="R40" t="s">
         <v>16</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="S40" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
       <c r="O41">
         <v>9</v>
       </c>
@@ -2045,25 +2046,25 @@
       <c r="R41" t="s">
         <v>16</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="S41" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
       <c r="O42">
         <v>10</v>
       </c>
@@ -2076,25 +2077,25 @@
       <c r="R42" t="s">
         <v>16</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="S42" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
       <c r="O43">
         <v>11</v>
       </c>
@@ -2107,63 +2108,63 @@
       <c r="R43" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="4" t="s">
+      <c r="S43" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="P45" s="3" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="P45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
       <c r="P46" t="s">
         <v>0</v>
       </c>
@@ -2173,25 +2174,25 @@
       <c r="R46" t="s">
         <v>2</v>
       </c>
-      <c r="S46" s="2" t="s">
+      <c r="S46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
       <c r="O47">
         <v>1</v>
       </c>
@@ -2204,8 +2205,8 @@
       <c r="R47" t="s">
         <v>46</v>
       </c>
-      <c r="S47" s="2" t="s">
-        <v>60</v>
+      <c r="S47" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -2221,8 +2222,8 @@
       <c r="R48" t="s">
         <v>47</v>
       </c>
-      <c r="S48" s="2" t="s">
-        <v>61</v>
+      <c r="S48" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="15:19" x14ac:dyDescent="0.25">
@@ -2238,7 +2239,7 @@
       <c r="R49" t="s">
         <v>48</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="S49" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2255,7 +2256,7 @@
       <c r="R50" t="s">
         <v>49</v>
       </c>
-      <c r="S50" s="2" t="s">
+      <c r="S50" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2272,7 +2273,7 @@
       <c r="R51" t="s">
         <v>50</v>
       </c>
-      <c r="S51" s="2" t="s">
+      <c r="S51" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2289,7 +2290,7 @@
       <c r="R52" t="s">
         <v>51</v>
       </c>
-      <c r="S52" s="2" t="s">
+      <c r="S52" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2306,7 +2307,7 @@
       <c r="R53" t="s">
         <v>52</v>
       </c>
-      <c r="S53" s="2" t="s">
+      <c r="S53" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2323,7 +2324,7 @@
       <c r="R54" t="s">
         <v>53</v>
       </c>
-      <c r="S54" s="2" t="s">
+      <c r="S54" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2340,7 +2341,7 @@
       <c r="R55" t="s">
         <v>54</v>
       </c>
-      <c r="S55" s="2" t="s">
+      <c r="S55" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2357,7 +2358,7 @@
       <c r="R56" t="s">
         <v>55</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="S56" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2374,7 +2375,7 @@
       <c r="R57" t="s">
         <v>56</v>
       </c>
-      <c r="S57" s="4" t="s">
+      <c r="S57" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2391,17 +2392,17 @@
       <c r="R58" t="s">
         <v>57</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="S58" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="P60" s="3" t="s">
+      <c r="P60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
     </row>
     <row r="61" spans="15:19" x14ac:dyDescent="0.25">
       <c r="P61" t="s">
@@ -2413,7 +2414,7 @@
       <c r="R61" t="s">
         <v>2</v>
       </c>
-      <c r="S61" s="2" t="s">
+      <c r="S61" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2422,15 +2423,15 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q62" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>45</v>
       </c>
       <c r="R62" t="s">
-        <v>84</v>
-      </c>
-      <c r="S62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S62" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2441,14 +2442,14 @@
       <c r="P63" t="s">
         <v>71</v>
       </c>
-      <c r="Q63" s="5" t="s">
+      <c r="Q63" s="3" t="s">
         <v>71</v>
       </c>
       <c r="R63" t="s">
-        <v>85</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="15:19" x14ac:dyDescent="0.25">
@@ -2456,15 +2457,15 @@
         <v>3</v>
       </c>
       <c r="P64" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R64" t="s">
         <v>91</v>
       </c>
-      <c r="Q64" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R64" t="s">
-        <v>92</v>
-      </c>
-      <c r="S64" s="2" t="s">
+      <c r="S64" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2473,16 +2474,16 @@
         <v>4</v>
       </c>
       <c r="P65" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R65" t="s">
         <v>104</v>
       </c>
-      <c r="Q65" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R65" t="s">
-        <v>105</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>93</v>
+      <c r="S65" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="15:19" x14ac:dyDescent="0.25">
@@ -2492,14 +2493,14 @@
       <c r="P66" t="s">
         <v>72</v>
       </c>
-      <c r="Q66" s="5" t="s">
-        <v>82</v>
+      <c r="Q66" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="R66" t="s">
-        <v>124</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="15:19" x14ac:dyDescent="0.25">
@@ -2509,14 +2510,14 @@
       <c r="P67" t="s">
         <v>73</v>
       </c>
-      <c r="Q67" s="5" t="s">
-        <v>82</v>
+      <c r="Q67" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="R67" t="s">
-        <v>125</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="15:19" x14ac:dyDescent="0.25">
@@ -2526,14 +2527,14 @@
       <c r="P68" t="s">
         <v>74</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="Q68" s="3" t="s">
         <v>45</v>
       </c>
       <c r="R68" t="s">
-        <v>126</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="15:19" x14ac:dyDescent="0.25">
@@ -2541,16 +2542,16 @@
         <v>8</v>
       </c>
       <c r="P69" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>82</v>
+        <v>105</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="R69" t="s">
-        <v>127</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="15:19" x14ac:dyDescent="0.25">
@@ -2558,16 +2559,16 @@
         <v>9</v>
       </c>
       <c r="P70" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s">
         <v>98</v>
       </c>
-      <c r="Q70" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s">
+      <c r="S70" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="71" spans="15:19" x14ac:dyDescent="0.25">
@@ -2577,14 +2578,14 @@
       <c r="P71" t="s">
         <v>75</v>
       </c>
-      <c r="Q71" s="5" t="s">
+      <c r="Q71" s="3" t="s">
         <v>45</v>
       </c>
       <c r="R71" t="s">
-        <v>86</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="15:19" x14ac:dyDescent="0.25">
@@ -2592,16 +2593,16 @@
         <v>11</v>
       </c>
       <c r="P72" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q72" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q72" s="3" t="s">
         <v>45</v>
       </c>
       <c r="R72" t="s">
-        <v>128</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="15:19" x14ac:dyDescent="0.25">
@@ -2609,16 +2610,16 @@
         <v>12</v>
       </c>
       <c r="P73" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q73" s="5" t="s">
-        <v>82</v>
+        <v>114</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="R73" t="s">
-        <v>120</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="15:19" x14ac:dyDescent="0.25">
@@ -2626,16 +2627,16 @@
         <v>13</v>
       </c>
       <c r="P74" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q74" s="3" t="s">
         <v>71</v>
       </c>
       <c r="R74" t="s">
-        <v>119</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="15:19" x14ac:dyDescent="0.25">
@@ -2645,14 +2646,14 @@
       <c r="P75" t="s">
         <v>76</v>
       </c>
-      <c r="Q75" s="5" t="s">
+      <c r="Q75" s="3" t="s">
         <v>45</v>
       </c>
       <c r="R75" t="s">
-        <v>129</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="15:19" x14ac:dyDescent="0.25">
@@ -2662,14 +2663,14 @@
       <c r="P76" t="s">
         <v>77</v>
       </c>
-      <c r="Q76" s="5" t="s">
-        <v>82</v>
+      <c r="Q76" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="R76" t="s">
-        <v>118</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="15:19" x14ac:dyDescent="0.25">
@@ -2677,16 +2678,16 @@
         <v>16</v>
       </c>
       <c r="P77" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q77" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q77" s="3" t="s">
         <v>71</v>
       </c>
       <c r="R77" t="s">
-        <v>117</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="15:19" x14ac:dyDescent="0.25">
@@ -2694,16 +2695,16 @@
         <v>17</v>
       </c>
       <c r="P78" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q78" s="5" t="s">
-        <v>82</v>
+        <v>107</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="R78" t="s">
-        <v>130</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="15:19" x14ac:dyDescent="0.25">
@@ -2711,16 +2712,16 @@
         <v>18</v>
       </c>
       <c r="P79" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q79" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q79" s="3" t="s">
         <v>45</v>
       </c>
       <c r="R79" t="s">
-        <v>109</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="15:19" x14ac:dyDescent="0.25">
@@ -2728,16 +2729,16 @@
         <v>19</v>
       </c>
       <c r="P80" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q80" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="R80" t="s">
-        <v>88</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="15:19" x14ac:dyDescent="0.25">
@@ -2745,16 +2746,16 @@
         <v>20</v>
       </c>
       <c r="P81" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q81" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="R81" t="s">
-        <v>89</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Staging Database Design.xlsx
+++ b/docs/Staging Database Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWProject\WH_Nhom9_DongHo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B1A30F-3D88-4E7F-82EB-32D33A811F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7DA06-F680-4423-B74C-6F7B8A8495AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>date_id (FK)</t>
   </si>
   <si>
-    <t>field1 (PK)</t>
-  </si>
-  <si>
     <t>varchar(500)</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>month_name</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>day_of_year</t>
   </si>
   <si>
@@ -342,9 +336,6 @@
     <t>Tháng thứ bao nhiêu trong bảng tính từ 1/1/2005</t>
   </si>
   <si>
-    <t>year_month</t>
-  </si>
-  <si>
     <t>quarter_from_start</t>
   </si>
   <si>
@@ -418,6 +409,15 @@
   </si>
   <si>
     <t>iso_week_start_date</t>
+  </si>
+  <si>
+    <t>year_num</t>
+  </si>
+  <si>
+    <t>year_mo</t>
+  </si>
+  <si>
+    <t>field1</t>
   </si>
 </sst>
 </file>
@@ -492,13 +492,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -846,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L22" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,45 +858,47 @@
     <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="111.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="P1" s="4" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="P1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
       <c r="P2" t="s">
         <v>0</v>
       </c>
@@ -911,25 +913,25 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Q3" t="s">
         <v>15</v>
@@ -937,25 +939,25 @@
       <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
       <c r="O4">
         <v>2</v>
       </c>
@@ -973,20 +975,20 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
       <c r="O5">
         <v>3</v>
       </c>
@@ -1004,20 +1006,20 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
       <c r="O6">
         <v>4</v>
       </c>
@@ -1035,20 +1037,20 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
       <c r="O7">
         <v>5</v>
       </c>
@@ -1066,20 +1068,20 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="O8">
         <v>6</v>
       </c>
@@ -1097,20 +1099,20 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
       <c r="O9">
         <v>7</v>
       </c>
@@ -1128,20 +1130,20 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
       <c r="O10">
         <v>8</v>
       </c>
@@ -1159,20 +1161,20 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
       <c r="O11">
         <v>9</v>
       </c>
@@ -1190,20 +1192,20 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="O12">
         <v>10</v>
       </c>
@@ -1221,20 +1223,20 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
       <c r="O13">
         <v>11</v>
       </c>
@@ -1248,78 +1250,78 @@
         <v>16</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="P16" s="4" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="P16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
       <c r="P17" t="s">
         <v>0</v>
       </c>
@@ -1334,20 +1336,20 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
       <c r="O18">
         <v>1</v>
       </c>
@@ -1355,30 +1357,30 @@
         <v>37</v>
       </c>
       <c r="Q18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R18" t="s">
-        <v>46</v>
-      </c>
-      <c r="S18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
       <c r="O19">
         <v>2</v>
       </c>
@@ -1386,30 +1388,30 @@
         <v>27</v>
       </c>
       <c r="Q19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
       <c r="O20">
         <v>3</v>
       </c>
@@ -1417,30 +1419,30 @@
         <v>28</v>
       </c>
       <c r="Q20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="O21">
         <v>4</v>
       </c>
@@ -1448,30 +1450,30 @@
         <v>29</v>
       </c>
       <c r="Q21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
       <c r="O22">
         <v>5</v>
       </c>
@@ -1479,30 +1481,30 @@
         <v>30</v>
       </c>
       <c r="Q22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
       <c r="O23">
         <v>6</v>
       </c>
@@ -1510,30 +1512,30 @@
         <v>31</v>
       </c>
       <c r="Q23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S23" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
       <c r="O24">
         <v>7</v>
       </c>
@@ -1541,30 +1543,30 @@
         <v>32</v>
       </c>
       <c r="Q24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S24" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
       <c r="O25">
         <v>8</v>
       </c>
@@ -1572,30 +1574,30 @@
         <v>33</v>
       </c>
       <c r="Q25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
       <c r="O26">
         <v>9</v>
       </c>
@@ -1603,30 +1605,30 @@
         <v>34</v>
       </c>
       <c r="Q26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
       <c r="O27">
         <v>10</v>
       </c>
@@ -1634,30 +1636,30 @@
         <v>35</v>
       </c>
       <c r="Q27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
       <c r="O28">
         <v>11</v>
       </c>
@@ -1665,30 +1667,30 @@
         <v>36</v>
       </c>
       <c r="Q28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
       <c r="O29">
         <v>12</v>
       </c>
@@ -1696,68 +1698,68 @@
         <v>38</v>
       </c>
       <c r="Q29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="P31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="P31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
       <c r="P32" t="s">
         <v>0</v>
       </c>
@@ -1772,25 +1774,25 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Q33" t="s">
         <v>15</v>
@@ -1798,25 +1800,25 @@
       <c r="R33" t="s">
         <v>16</v>
       </c>
-      <c r="S33" s="6" t="s">
-        <v>61</v>
+      <c r="S33" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
       <c r="O34">
         <v>2</v>
       </c>
@@ -1830,24 +1832,24 @@
         <v>16</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
       <c r="O35">
         <v>3</v>
       </c>
@@ -1861,24 +1863,24 @@
         <v>16</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
       <c r="O36">
         <v>4</v>
       </c>
@@ -1892,24 +1894,24 @@
         <v>16</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
       <c r="O37">
         <v>5</v>
       </c>
@@ -1923,24 +1925,24 @@
         <v>16</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
       <c r="O38">
         <v>6</v>
       </c>
@@ -1954,24 +1956,24 @@
         <v>16</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
       <c r="O39">
         <v>7</v>
       </c>
@@ -1985,24 +1987,24 @@
         <v>16</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
       <c r="O40">
         <v>8</v>
       </c>
@@ -2016,24 +2018,24 @@
         <v>16</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
       <c r="O41">
         <v>9</v>
       </c>
@@ -2047,24 +2049,24 @@
         <v>16</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
       <c r="O42">
         <v>10</v>
       </c>
@@ -2078,24 +2080,24 @@
         <v>16</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
       <c r="O43">
         <v>11</v>
       </c>
@@ -2109,62 +2111,62 @@
         <v>16</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="P45" s="4" t="s">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="P45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
       <c r="P46" t="s">
         <v>0</v>
       </c>
@@ -2179,20 +2181,20 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
       <c r="O47">
         <v>1</v>
       </c>
@@ -2200,13 +2202,13 @@
         <v>37</v>
       </c>
       <c r="Q47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R47" t="s">
-        <v>46</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -2217,13 +2219,13 @@
         <v>27</v>
       </c>
       <c r="Q48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="15:19" x14ac:dyDescent="0.25">
@@ -2234,13 +2236,13 @@
         <v>28</v>
       </c>
       <c r="Q49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="15:19" x14ac:dyDescent="0.25">
@@ -2251,13 +2253,13 @@
         <v>29</v>
       </c>
       <c r="Q50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="15:19" x14ac:dyDescent="0.25">
@@ -2268,13 +2270,13 @@
         <v>30</v>
       </c>
       <c r="Q51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="15:19" x14ac:dyDescent="0.25">
@@ -2285,13 +2287,13 @@
         <v>31</v>
       </c>
       <c r="Q52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="15:19" x14ac:dyDescent="0.25">
@@ -2302,13 +2304,13 @@
         <v>32</v>
       </c>
       <c r="Q53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.25">
@@ -2319,13 +2321,13 @@
         <v>33</v>
       </c>
       <c r="Q54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.25">
@@ -2336,13 +2338,13 @@
         <v>34</v>
       </c>
       <c r="Q55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="15:19" x14ac:dyDescent="0.25">
@@ -2353,13 +2355,13 @@
         <v>35</v>
       </c>
       <c r="Q56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="15:19" x14ac:dyDescent="0.25">
@@ -2370,13 +2372,13 @@
         <v>36</v>
       </c>
       <c r="Q57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="15:19" x14ac:dyDescent="0.25">
@@ -2387,22 +2389,22 @@
         <v>38</v>
       </c>
       <c r="Q58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="P60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
+      <c r="P60" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
     </row>
     <row r="61" spans="15:19" x14ac:dyDescent="0.25">
       <c r="P61" t="s">
@@ -2423,13 +2425,13 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>26</v>
@@ -2440,16 +2442,16 @@
         <v>2</v>
       </c>
       <c r="P63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="15:19" x14ac:dyDescent="0.25">
@@ -2457,306 +2459,334 @@
         <v>3</v>
       </c>
       <c r="P64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R65" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="15:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O66">
         <v>5</v>
       </c>
       <c r="P66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="15:19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="V66" s="3"/>
+    </row>
+    <row r="67" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O67">
         <v>6</v>
       </c>
       <c r="P67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R67" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="15:19" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O68">
         <v>7</v>
       </c>
       <c r="P68" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="15:19" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="V68" s="3"/>
+    </row>
+    <row r="69" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O69">
         <v>8</v>
       </c>
       <c r="P69" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="15:19" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="V69" s="3"/>
+    </row>
+    <row r="70" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O70">
         <v>9</v>
       </c>
       <c r="P70" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R70" t="s">
+        <v>96</v>
+      </c>
+      <c r="S70" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q70" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s">
-        <v>98</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="V70" s="3"/>
+    </row>
+    <row r="71" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O71">
         <v>10</v>
       </c>
       <c r="P71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="15:19" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="V71" s="3"/>
+    </row>
+    <row r="72" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O72">
         <v>11</v>
       </c>
       <c r="P72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="15:19" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="V72" s="3"/>
+    </row>
+    <row r="73" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O73">
         <v>12</v>
       </c>
       <c r="P73" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="15:19" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="V73" s="3"/>
+    </row>
+    <row r="74" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O74">
         <v>13</v>
       </c>
       <c r="P74" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R74" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="15:19" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="V74" s="3"/>
+    </row>
+    <row r="75" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O75">
         <v>14</v>
       </c>
       <c r="P75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="15:19" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="V75" s="3"/>
+    </row>
+    <row r="76" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O76">
         <v>15</v>
       </c>
       <c r="P76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R76" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="15:19" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="V76" s="3"/>
+    </row>
+    <row r="77" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O77">
         <v>16</v>
       </c>
       <c r="P77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R77" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="15:19" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="V77" s="3"/>
+    </row>
+    <row r="78" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O78">
         <v>17</v>
       </c>
       <c r="P78" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R78" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="15:19" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="V78" s="3"/>
+    </row>
+    <row r="79" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O79">
         <v>18</v>
       </c>
       <c r="P79" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R79" t="s">
+        <v>105</v>
+      </c>
+      <c r="S79" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S79" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="V79" s="3"/>
+    </row>
+    <row r="80" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O80">
         <v>19</v>
       </c>
       <c r="P80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="15:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="V80" s="3"/>
+    </row>
+    <row r="81" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O81">
         <v>20</v>
       </c>
       <c r="P81" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="V81" s="3"/>
+    </row>
+    <row r="82" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="V83" s="3"/>
+    </row>
+    <row r="84" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="V84" s="3"/>
+    </row>
+    <row r="85" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="V85" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/Staging Database Design.xlsx
+++ b/docs/Staging Database Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWProject\WH_Nhom9_DongHo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7DA06-F680-4423-B74C-6F7B8A8495AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06652A01-2A05-43D4-9E4C-EFF3353278B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="132">
   <si>
     <t>Field</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>field1</t>
+  </si>
+  <si>
+    <t>dongho_dqw_daily</t>
   </si>
 </sst>
 </file>
@@ -848,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="I37" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2149,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="P45" s="5" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
